--- a/test/data/excel/acmYearTemplate.xlsx
+++ b/test/data/excel/acmYearTemplate.xlsx
@@ -2850,12 +2850,63 @@
     <xf numFmtId="174" fontId="46" fillId="0" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -2865,12 +2916,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2889,140 +2934,104 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="49" fillId="4" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="49" fillId="4" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="42" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="49" fillId="4" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="49" fillId="4" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3042,12 +3051,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3056,9 +3059,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4103,71 +4103,71 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="1:12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="142"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="130"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="145"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="133"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="148"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -4202,50 +4202,50 @@
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -4265,33 +4265,33 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="135" t="s">
+      <c r="C12" s="130"/>
+      <c r="D12" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="137"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="133"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="142"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
@@ -4299,131 +4299,131 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="147"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="143" t="s">
+      <c r="D18" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="144" t="s">
+      <c r="D20" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="144" t="s">
+      <c r="D21" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -5194,6 +5194,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="D19:L19"/>
     <mergeCell ref="D20:L20"/>
     <mergeCell ref="D21:L21"/>
@@ -5203,18 +5215,6 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="D18:L18"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="B5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="C22">
     <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
@@ -5234,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,48 +5261,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="152" t="s">
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="152"/>
+      <c r="I1" s="169"/>
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
       <c r="L1" s="88"/>
       <c r="M1" s="89"/>
       <c r="N1" s="89"/>
-      <c r="O1" s="153" t="s">
+      <c r="O1" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="154" t="s">
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154" t="s">
+      <c r="S1" s="178"/>
+      <c r="T1" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="154"/>
+      <c r="U1" s="178"/>
     </row>
     <row r="2" spans="3:21" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="150" t="s">
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="150"/>
+      <c r="I2" s="176"/>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
       <c r="L2" s="90"/>
@@ -5313,54 +5313,54 @@
       <c r="Q2" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="151">
+      <c r="R2" s="170">
         <v>0.93520000000000003</v>
       </c>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151">
+      <c r="S2" s="170"/>
+      <c r="T2" s="170">
         <v>1.1951000000000001</v>
       </c>
-      <c r="U2" s="151"/>
+      <c r="U2" s="170"/>
     </row>
     <row r="3" spans="3:21" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="152" t="s">
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
       <c r="N3" s="93"/>
       <c r="O3" s="91"/>
       <c r="P3" s="94"/>
       <c r="Q3" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="151">
+      <c r="R3" s="170">
         <v>0</v>
       </c>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151">
+      <c r="S3" s="170"/>
+      <c r="T3" s="170">
         <v>0</v>
       </c>
-      <c r="U3" s="151"/>
+      <c r="U3" s="170"/>
     </row>
     <row r="5" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
       <c r="J5" s="91"/>
@@ -5371,56 +5371,56 @@
       </c>
       <c r="N5" s="91"/>
       <c r="O5" s="106"/>
-      <c r="P5" s="162" t="s">
+      <c r="P5" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
     </row>
     <row r="6" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="109"/>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
-      <c r="F6" s="164" t="s">
+      <c r="F6" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164" t="s">
+      <c r="G6" s="175"/>
+      <c r="H6" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="164"/>
+      <c r="I6" s="175"/>
       <c r="J6" s="91"/>
       <c r="K6" s="91"/>
       <c r="L6" s="91"/>
       <c r="M6" s="91"/>
       <c r="N6" s="91"/>
       <c r="O6" s="106"/>
-      <c r="P6" s="162" t="s">
+      <c r="P6" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
+      <c r="Q6" s="174"/>
+      <c r="R6" s="174"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="174"/>
+      <c r="U6" s="174"/>
     </row>
     <row r="7" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="109"/>
       <c r="D7" s="91"/>
       <c r="E7" s="91"/>
-      <c r="F7" s="165">
+      <c r="F7" s="157">
         <f>SUM(I20:I8798)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165">
+      <c r="G7" s="157"/>
+      <c r="H7" s="157">
         <f>SUM(K20:K8798)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="165"/>
+      <c r="I7" s="157"/>
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
       <c r="L7" s="91"/>
@@ -5429,14 +5429,14 @@
       <c r="O7" s="106">
         <v>1</v>
       </c>
-      <c r="P7" s="166" t="s">
+      <c r="P7" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="167"/>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="167"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
     </row>
     <row r="8" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="109"/>
@@ -5460,49 +5460,49 @@
       <c r="U8" s="110"/>
     </row>
     <row r="9" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
       <c r="H9" s="111"/>
       <c r="I9" s="91"/>
       <c r="J9" s="110"/>
-      <c r="K9" s="161" t="s">
+      <c r="K9" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
       <c r="N9" s="91"/>
-      <c r="O9" s="161" t="s">
+      <c r="O9" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="161"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
     </row>
     <row r="10" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="109"/>
       <c r="D10" s="91"/>
       <c r="E10" s="91"/>
-      <c r="F10" s="173" t="s">
+      <c r="F10" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="173"/>
-      <c r="H10" s="175" t="s">
+      <c r="G10" s="151"/>
+      <c r="H10" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="175"/>
+      <c r="I10" s="152"/>
       <c r="J10" s="110"/>
-      <c r="K10" s="173" t="s">
+      <c r="K10" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="173"/>
+      <c r="L10" s="151"/>
       <c r="M10" s="112" t="s">
         <v>93</v>
       </c>
@@ -5533,22 +5533,22 @@
       <c r="C11" s="109"/>
       <c r="D11" s="91"/>
       <c r="E11" s="91"/>
-      <c r="F11" s="176">
+      <c r="F11" s="153">
         <f>COUNTIF(O20:O8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176">
+      <c r="G11" s="153"/>
+      <c r="H11" s="153">
         <f>COUNTIF(R20:R8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="I11" s="176"/>
+      <c r="I11" s="153"/>
       <c r="J11" s="91"/>
-      <c r="K11" s="177">
+      <c r="K11" s="155">
         <f>COUNTIF($M20:$M8800,"СНВВ не працює")</f>
         <v>0</v>
       </c>
-      <c r="L11" s="178"/>
+      <c r="L11" s="156"/>
       <c r="M11" s="114">
         <f>COUNTIF($M20:$M8800,"агрегати не працюють")</f>
         <v>0</v>
@@ -5605,13 +5605,13 @@
       <c r="U12" s="110"/>
     </row>
     <row r="13" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="116"/>
       <c r="I13" s="116"/>
       <c r="J13" s="116"/>
@@ -5619,33 +5619,33 @@
       <c r="L13" s="91"/>
       <c r="M13" s="91"/>
       <c r="N13" s="91"/>
-      <c r="O13" s="161" t="s">
+      <c r="O13" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="161"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
     </row>
     <row r="14" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="109"/>
       <c r="D14" s="91"/>
       <c r="E14" s="91"/>
-      <c r="F14" s="173" t="s">
+      <c r="F14" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="173"/>
-      <c r="H14" s="174" t="s">
+      <c r="G14" s="151"/>
+      <c r="H14" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="173" t="s">
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="173"/>
+      <c r="L14" s="151"/>
       <c r="M14" s="117" t="s">
         <v>97</v>
       </c>
@@ -5676,22 +5676,22 @@
       <c r="C15" s="109"/>
       <c r="D15" s="91"/>
       <c r="E15" s="91"/>
-      <c r="F15" s="176">
+      <c r="F15" s="153">
         <f>COUNTIF(F20:F8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176">
+      <c r="G15" s="153"/>
+      <c r="H15" s="153">
         <f>COUNTIF(H20:H8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176">
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153">
         <f>COUNTIF(J20:J8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="L15" s="176"/>
+      <c r="L15" s="153"/>
       <c r="M15" s="118">
         <f>COUNTIF(L20:L8798,"&gt;0")</f>
         <v>0</v>
@@ -5715,67 +5715,67 @@
       </c>
     </row>
     <row r="17" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="155" t="s">
+      <c r="D17" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="157" t="s">
+      <c r="E17" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="157" t="s">
+      <c r="F17" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="157" t="s">
+      <c r="G17" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="157" t="s">
+      <c r="H17" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="168" t="s">
+      <c r="I17" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="157" t="s">
+      <c r="J17" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="168" t="s">
+      <c r="K17" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="157" t="s">
+      <c r="L17" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="170" t="s">
+      <c r="M17" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="172" t="s">
+      <c r="O17" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="172"/>
-      <c r="R17" s="159" t="s">
+      <c r="P17" s="166"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="159"/>
-      <c r="T17" s="160"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="172"/>
       <c r="U17" s="102"/>
     </row>
     <row r="18" spans="2:21" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="171"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="165"/>
       <c r="O18" s="95" t="s">
         <v>82</v>
       </c>
@@ -5871,24 +5871,20 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E20" s="106"/>
-      <c r="F20" s="106" t="str">
-        <f>IF(E20="","",IF(E20&lt;1,1,0))</f>
-        <v/>
+      <c r="F20" s="106">
+        <v>0</v>
       </c>
       <c r="G20" s="106"/>
-      <c r="H20" s="106" t="str">
-        <f>IF(G20="","",IF(G20&lt;1,1,0))</f>
-        <v/>
+      <c r="H20" s="106">
+        <v>0</v>
       </c>
       <c r="I20" s="106"/>
-      <c r="J20" s="106" t="str">
-        <f>IF(I20="","",IF(I20&lt;1,1,0))</f>
-        <v/>
+      <c r="J20" s="106">
+        <v>0</v>
       </c>
       <c r="K20" s="106"/>
-      <c r="L20" s="106" t="str">
-        <f>IF(K20="","",IF(K20&lt;1,1,0))</f>
-        <v/>
+      <c r="L20" s="106">
+        <v>0</v>
       </c>
       <c r="M20" s="107" t="str">
         <f>IF(I20="","чи робить СНВВ?",IF(K20="","чи роблять агрегати?",IF($K20=0,"агрегати не працюють",IF(AND($I20=0,$K20=1),"СНВВ не працює","OK"))))</f>
@@ -5926,17 +5922,31 @@
   </sheetData>
   <autoFilter ref="B19:M19"/>
   <mergeCells count="52">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="P6:U6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="P7:U7"/>
@@ -5953,31 +5963,17 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="O9:U9"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:R3 T2:T3">
     <cfRule type="containsBlanks" dxfId="30" priority="80">
@@ -7104,11 +7100,11 @@
       <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
       <c r="E2" s="24" t="s">
         <v>21</v>
       </c>
@@ -7163,11 +7159,11 @@
       <c r="A5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
       <c r="E5" s="34">
         <f>Data_CNBB!H7</f>
         <v>0</v>
@@ -7184,11 +7180,11 @@
       <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="34">
         <f>Data_CNBB!$U$15/1000000000</f>
         <v>0</v>
@@ -7205,11 +7201,11 @@
       <c r="A7" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
       <c r="E7" s="38">
         <f>E6*298</f>
         <v>0</v>
@@ -7226,11 +7222,11 @@
       <c r="A8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
       <c r="E8" s="40">
         <f>IFERROR(Data_CNBB!$U$15/1000000/E5, 0)</f>
         <v>0</v>
@@ -7318,12 +7314,12 @@
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="61"/>
       <c r="B16" s="64"/>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="186"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="180"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
@@ -7331,12 +7327,12 @@
       <c r="B17" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="185" t="s">
+      <c r="C17" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="186"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
@@ -7344,12 +7340,12 @@
       <c r="B18" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="185" t="s">
+      <c r="C18" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="186"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="180"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -7374,23 +7370,23 @@
       <c r="A21" s="57">
         <v>2</v>
       </c>
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="188" t="s">
+      <c r="C21" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="188"/>
+      <c r="D21" s="189"/>
       <c r="E21" s="55"/>
       <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="189" t="s">
+      <c r="B22" s="188"/>
+      <c r="C22" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="189"/>
+      <c r="D22" s="190"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
     </row>
@@ -7415,48 +7411,48 @@
       <c r="B25" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="179" t="s">
+      <c r="C25" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="180"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="183"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="185" t="s">
+      <c r="C26" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="186"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="180"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="185" t="s">
+      <c r="C27" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="185"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="186"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="180"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="185" t="s">
+      <c r="C28" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="186"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="180"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
@@ -7486,10 +7482,10 @@
       <c r="A32" s="57">
         <v>3</v>
       </c>
-      <c r="B32" s="190" t="s">
+      <c r="B32" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="190"/>
+      <c r="C32" s="181"/>
       <c r="D32" s="76"/>
       <c r="E32" s="76"/>
       <c r="F32" s="77"/>
@@ -7523,36 +7519,36 @@
       <c r="B36" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="185" t="s">
+      <c r="C36" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="186"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="180"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
       <c r="B37" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="185" t="s">
+      <c r="C37" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="186"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="180"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
       <c r="B38" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="185" t="s">
+      <c r="C38" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="186"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="180"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="84"/>
@@ -7564,13 +7560,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:D5"/>
@@ -7583,6 +7572,13 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
